--- a/doc/Mech Arch R2 Buy List.xlsx
+++ b/doc/Mech Arch R2 Buy List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Part #</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>4 Channel optoisolator</t>
+  </si>
+  <si>
+    <t>B003ZHV3TW</t>
+  </si>
+  <si>
+    <t>1/2” x 5” x 36” 6061 Aluminum bar for gear motor mounts</t>
+  </si>
+  <si>
+    <t>amazonsupply.com</t>
   </si>
   <si>
     <t>Total:</t>
@@ -209,12 +218,8 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -310,713 +315,723 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C30" activeCellId="0" pane="topLeft" sqref="C30"/>
+      <selection activeCell="A25" activeCellId="0" pane="topLeft" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1377551020408"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.290816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5663265306122"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5663265306122"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="1.5" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="8" t="n">
         <v>399.99</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="9" t="n">
         <f aca="false">D2*C2</f>
         <v>399.99</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="8" t="n">
         <v>59.99</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="9" t="n">
         <f aca="false">D3*C3</f>
         <v>119.98</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="8" t="n">
         <v>34.99</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">D4*C4</f>
         <v>69.98</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="5">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="6" t="n">
         <v>535158</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="8" t="n">
         <v>6.99</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="9" t="n">
         <f aca="false">D5*C5</f>
         <v>55.92</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="6" t="n">
         <v>595410</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="8" t="n">
         <v>6.99</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="9" t="n">
         <f aca="false">D6*C6</f>
         <v>13.98</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>545560</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="8" t="n">
         <v>4.99</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="9" t="n">
         <f aca="false">D7*C7</f>
         <v>19.96</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10" t="n">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="n">
         <f aca="false">D8*C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="8" t="n">
         <v>10.76</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="9" t="n">
         <f aca="false">D9*C9</f>
         <v>21.52</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="9" t="n">
         <f aca="false">D10*C10</f>
         <v>0.72</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="8" t="n">
         <v>1.63</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="9" t="n">
         <f aca="false">D11*C11</f>
         <v>6.52</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="8" t="n">
         <v>0.0426</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="9" t="n">
         <f aca="false">D12*C12</f>
         <v>2.13</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="8" t="n">
         <v>1.52</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="9" t="n">
         <f aca="false">D13*C13</f>
         <v>1.52</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="8" t="n">
         <v>1.84</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="9" t="n">
         <f aca="false">D14*C14</f>
         <v>1.84</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10" t="n">
+      <c r="A15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9" t="n">
         <f aca="false">D15*C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10" t="n">
+      <c r="A16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <f aca="false">D16*C16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>55.56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10" t="n">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9" t="n">
         <f aca="false">D17*C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10" t="n">
+      <c r="A18" s="13"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9" t="n">
         <f aca="false">D18*C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10" t="n">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9" t="n">
         <f aca="false">D19*C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="10" t="n">
+      <c r="A20" s="6"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="9" t="n">
         <f aca="false">D20*C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="21">
-      <c r="A21" s="7"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="10" t="n">
+      <c r="A21" s="6"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="9" t="n">
         <f aca="false">D21*C21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="10" t="n">
+      <c r="A22" s="6"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="9" t="n">
         <f aca="false">D22*C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="10" t="n">
+      <c r="A23" s="6"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="9" t="n">
         <f aca="false">D23*C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="10" t="n">
+      <c r="A24" s="6"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="9" t="n">
         <f aca="false">D24*C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="19" t="n">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="18" t="n">
         <f aca="false">SUM(E2:E24)</f>
-        <v>714.06</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
+        <v>769.62</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/doc/Mech Arch R2 Buy List.xlsx
+++ b/doc/Mech Arch R2 Buy List.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edr2694\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="465" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="465"/>
   </bookViews>
   <sheets>
-    <sheet name="Buy List" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Buy List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Part #</t>
   </si>
@@ -114,18 +118,41 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>S240HCT-ND</t>
+  </si>
+  <si>
+    <t>240 ohm resistor for optoisosolator output</t>
+  </si>
+  <si>
+    <t>CF14JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>10k resistor for optoisolator output</t>
+  </si>
+  <si>
+    <t>30QBK-ND</t>
+  </si>
+  <si>
+    <t>30 ohm resistor for LED display</t>
+  </si>
+  <si>
+    <t>CF14JT20K0CT-ND</t>
+  </si>
+  <si>
+    <t>20k pull down resistor for transistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,22 +160,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -161,12 +173,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,158 +196,365 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A25" activeCellId="0" pane="topLeft" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.290816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.4285714285714"/>
+    <col min="1" max="1" width="32.140625"/>
+    <col min="2" max="2" width="107.28515625"/>
+    <col min="3" max="3" width="14.42578125"/>
+    <col min="4" max="4" width="24.5703125"/>
+    <col min="5" max="5" width="14.42578125"/>
+    <col min="6" max="6" width="18.5703125"/>
+    <col min="7" max="1025" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="1">
+    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -369,21 +594,21 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="1.5" outlineLevel="0" r="2">
+    <row r="2" spans="1:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="8">
         <v>399.99</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <f aca="false">D2*C2</f>
+      <c r="E2" s="9">
+        <f t="shared" ref="E2:E27" si="0">D2*C2</f>
         <v>399.99</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -410,21 +635,21 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="3">
+    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>59.99</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <f aca="false">D3*C3</f>
+      <c r="E3" s="9">
+        <f t="shared" si="0"/>
         <v>119.98</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -451,21 +676,21 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
+    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>34.99</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="n">
-        <f aca="false">D4*C4</f>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
         <v>69.98</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -492,21 +717,21 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="5">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>535158</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>6.99</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <f aca="false">D5*C5</f>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
         <v>55.92</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -533,21 +758,21 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="6">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>595410</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>6.99</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="n">
-        <f aca="false">D6*C6</f>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
         <v>13.98</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -574,21 +799,21 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
-      <c r="A7" s="12" t="n">
+    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>545560</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="8">
         <v>4.99</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="9" t="n">
-        <f aca="false">D7*C7</f>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
         <v>19.96</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -615,308 +840,288 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
+    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="9" t="n">
-        <f aca="false">D8*C8</f>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="9">
+    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="8">
         <v>10.76</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="n">
-        <f aca="false">D9*C9</f>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
         <v>21.52</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="10">
+    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>0.36</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="n">
-        <f aca="false">D10*C10</f>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="11">
+    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="8">
         <v>1.63</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="9" t="n">
-        <f aca="false">D11*C11</f>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
         <v>6.52</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="12">
+    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="n">
-        <v>0.0426</v>
-      </c>
-      <c r="D12" s="7" t="n">
+      <c r="C12" s="8">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D12" s="7">
         <v>50</v>
       </c>
-      <c r="E12" s="9" t="n">
-        <f aca="false">D12*C12</f>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
         <v>2.13</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="13">
+    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="8">
         <v>1.52</v>
       </c>
-      <c r="D13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <f aca="false">D13*C13</f>
-        <v>1.52</v>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.04</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="14">
+    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="8">
         <v>1.84</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="n">
-        <f aca="false">D14*C14</f>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
         <v>1.84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9" t="n">
-        <f aca="false">D15*C15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="16">
-      <c r="A16" s="13" t="s">
-        <v>29</v>
+    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9">
+        <f>D15*C15</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="D16" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
+        <f>D16*C16</f>
         <v>1</v>
       </c>
-      <c r="E16" s="9" t="n">
-        <f aca="false">D16*C16</f>
-        <v>55.56</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9" t="n">
-        <f aca="false">D17*C17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9" t="n">
-        <f aca="false">D18*C18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>35</v>
+      </c>
+      <c r="E17" s="9">
+        <f>D17*C17</f>
+        <v>1.5399999999999998</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <f>D18*C18</f>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="9" t="n">
-        <f aca="false">D19*C19</f>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="20">
-      <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="9" t="n">
-        <f aca="false">D20*C20</f>
+    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>55.56</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="21">
-      <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="9" t="n">
-        <f aca="false">D21*C21</f>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="9" t="n">
-        <f aca="false">D22*C22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="23">
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="9" t="n">
-        <f aca="false">D23*C23</f>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="14"/>
@@ -941,13 +1146,13 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="24">
+    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="9" t="n">
-        <f aca="false">D24*C24</f>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="14"/>
@@ -972,13 +1177,16 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1000,18 +1208,16 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="18" t="n">
-        <f aca="false">SUM(E2:E24)</f>
-        <v>769.62</v>
-      </c>
-      <c r="F26" s="5"/>
+    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="14"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1033,21 +1239,108 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
+    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="18">
+        <f>SUM(E2:E27)</f>
+        <v>774.73</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="servocity.com" ref="F2" r:id="rId1"/>
-    <hyperlink display="servocity.com" ref="F3" r:id="rId2"/>
-    <hyperlink display="servocity.com" ref="F4" r:id="rId3"/>
-    <hyperlink display="servocity.com" ref="F5" r:id="rId4"/>
-    <hyperlink display="servocity.com" ref="F6" r:id="rId5"/>
-    <hyperlink display="servocity.com" ref="F7" r:id="rId6"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/doc/Mech Arch R2 Buy List.xlsx
+++ b/doc/Mech Arch R2 Buy List.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edr2694\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="465"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="465" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Buy List" sheetId="1" r:id="rId1"/>
+    <sheet name="Buy List" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -108,6 +104,30 @@
     <t>4 Channel optoisolator</t>
   </si>
   <si>
+    <t>S240HCT-ND</t>
+  </si>
+  <si>
+    <t>240 ohm resistor for optoisosolator output</t>
+  </si>
+  <si>
+    <t>CF14JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>10k resistor for optoisolator output</t>
+  </si>
+  <si>
+    <t>30QBK-ND</t>
+  </si>
+  <si>
+    <t>30 ohm resistor for LED display</t>
+  </si>
+  <si>
+    <t>CF14JT20K0CT-ND</t>
+  </si>
+  <si>
+    <t>20k pull down resistor for transistor</t>
+  </si>
+  <si>
     <t>B003ZHV3TW</t>
   </si>
   <si>
@@ -118,41 +138,18 @@
   </si>
   <si>
     <t>Total:</t>
-  </si>
-  <si>
-    <t>S240HCT-ND</t>
-  </si>
-  <si>
-    <t>240 ohm resistor for optoisosolator output</t>
-  </si>
-  <si>
-    <t>CF14JT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>10k resistor for optoisolator output</t>
-  </si>
-  <si>
-    <t>30QBK-ND</t>
-  </si>
-  <si>
-    <t>30 ohm resistor for LED display</t>
-  </si>
-  <si>
-    <t>CF14JT20K0CT-ND</t>
-  </si>
-  <si>
-    <t>20k pull down resistor for transistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="165"/>
+    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,7 +157,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -173,7 +185,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
@@ -185,6 +197,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,365 +209,162 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="D21" activeCellId="0" pane="topLeft" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.140625"/>
-    <col min="2" max="2" width="107.28515625"/>
-    <col min="3" max="3" width="14.42578125"/>
-    <col min="4" max="4" width="24.5703125"/>
-    <col min="5" max="5" width="14.42578125"/>
-    <col min="6" max="6" width="18.5703125"/>
-    <col min="7" max="1025" width="14.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,21 +404,21 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="1.5" outlineLevel="0" r="2">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="8" t="n">
         <v>399.99</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="9">
-        <f t="shared" ref="E2:E27" si="0">D2*C2</f>
+      <c r="E2" s="9" t="n">
+        <f aca="false">D2*C2</f>
         <v>399.99</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -635,21 +445,21 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="8" t="n">
         <v>59.99</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
-        <f t="shared" si="0"/>
+      <c r="E3" s="9" t="n">
+        <f aca="false">D3*C3</f>
         <v>119.98</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -676,21 +486,21 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="4">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="8" t="n">
         <v>34.99</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
-        <f t="shared" si="0"/>
+      <c r="E4" s="9" t="n">
+        <f aca="false">D4*C4</f>
         <v>69.98</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -717,21 +527,21 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="5">
+      <c r="A5" s="6" t="n">
         <v>535158</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="8" t="n">
         <v>6.99</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="9">
-        <f t="shared" si="0"/>
+      <c r="E5" s="9" t="n">
+        <f aca="false">D5*C5</f>
         <v>55.92</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -758,21 +568,21 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="6">
+      <c r="A6" s="6" t="n">
         <v>595410</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="8" t="n">
         <v>6.99</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
+      <c r="E6" s="9" t="n">
+        <f aca="false">D6*C6</f>
         <v>13.98</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -799,22 +609,22 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="7">
+      <c r="A7" s="12" t="n">
         <v>545560</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="n">
         <v>4.99</v>
       </c>
-      <c r="D7" s="7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>19.96</v>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <f aca="false">D7*C7</f>
+        <v>9.98</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>8</v>
@@ -840,291 +650,291 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="8">
       <c r="A8" s="13"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
+      <c r="E8" s="9" t="n">
+        <f aca="false">D8*C8</f>
         <v>0</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="9">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="n">
         <v>10.76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
+      <c r="E9" s="9" t="n">
+        <f aca="false">D9*C9</f>
         <v>21.52</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="10">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
+      <c r="E10" s="9" t="n">
+        <f aca="false">D10*C10</f>
         <v>0.72</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="11">
       <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="8" t="n">
         <v>1.63</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="9">
-        <f t="shared" si="0"/>
+      <c r="E11" s="9" t="n">
+        <f aca="false">D11*C11</f>
         <v>6.52</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="12">
       <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="8" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="D12" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
+      <c r="E12" s="9" t="n">
+        <f aca="false">D12*C12</f>
         <v>2.13</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="13">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="8" t="n">
         <v>1.52</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
+      <c r="E13" s="9" t="n">
+        <f aca="false">D13*C13</f>
         <v>3.04</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="14">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="8" t="n">
         <v>1.84</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
+      <c r="E14" s="9" t="n">
+        <f aca="false">D14*C14</f>
         <v>1.84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>33</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="15">
+      <c r="A15" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8" t="n">
         <v>0.11</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E15" s="9">
-        <f>D15*C15</f>
-        <v>0.55000000000000004</v>
+      <c r="E15" s="9" t="n">
+        <f aca="false">D15*C15</f>
+        <v>0.55</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>35</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="16">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="9">
-        <f>D16*C16</f>
+      <c r="E16" s="9" t="n">
+        <f aca="false">D16*C16</f>
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>37</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="17">
+      <c r="A17" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D17" s="7">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="D17" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="E17" s="9">
-        <f>D17*C17</f>
-        <v>1.5399999999999998</v>
+      <c r="E17" s="9" t="n">
+        <f aca="false">D17*C17</f>
+        <v>1.54</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>39</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="18">
+      <c r="A18" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E18" s="9">
-        <f>D18*C18</f>
+      <c r="E18" s="9" t="n">
+        <f aca="false">D18*C18</f>
         <v>0.5</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="19">
       <c r="A19" s="13"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
+      <c r="E19" s="9" t="n">
+        <f aca="false">D19*C19</f>
         <v>0</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="20">
       <c r="A20" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <v>55.56</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="0"/>
-        <v>55.56</v>
+      <c r="D20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <f aca="false">D20*C20</f>
+        <v>111.12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="21">
       <c r="A21" s="13"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="9">
-        <f t="shared" si="0"/>
+      <c r="E21" s="9" t="n">
+        <f aca="false">D21*C21</f>
         <v>0</v>
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="22">
       <c r="A22" s="13"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
+      <c r="E22" s="9" t="n">
+        <f aca="false">D22*C22</f>
         <v>0</v>
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="23">
       <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="9" t="n">
+        <f aca="false">D23*C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1146,16 +956,16 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="24">
       <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="9" t="n">
+        <f aca="false">D24*C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1177,16 +987,16 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="25">
       <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="9">
-        <f t="shared" si="0"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="9" t="n">
+        <f aca="false">D25*C25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1208,16 +1018,16 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="26">
       <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="9">
-        <f t="shared" si="0"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="9" t="n">
+        <f aca="false">D26*C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1239,16 +1049,16 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="27">
       <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="9">
-        <f t="shared" si="0"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="9" t="n">
+        <f aca="false">D27*C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1270,10 +1080,10 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="28">
       <c r="A28" s="11"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="16"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1298,16 +1108,16 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.25" outlineLevel="0" r="29">
       <c r="A29" s="11"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="18">
-        <f>SUM(E2:E27)</f>
-        <v>774.73</v>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="19" t="n">
+        <f aca="false">SUM(E2:E27)</f>
+        <v>820.31</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1333,14 +1143,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink display="servocity.com" ref="F2" r:id="rId1"/>
+    <hyperlink display="servocity.com" ref="F3" r:id="rId2"/>
+    <hyperlink display="servocity.com" ref="F4" r:id="rId3"/>
+    <hyperlink display="servocity.com" ref="F5" r:id="rId4"/>
+    <hyperlink display="servocity.com" ref="F6" r:id="rId5"/>
+    <hyperlink display="servocity.com" ref="F7" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId7"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>